--- a/customer/Cherry_Customer_DeliveryInfo .xlsx
+++ b/customer/Cherry_Customer_DeliveryInfo .xlsx
@@ -152,11 +152,6 @@
 "http://127.0.0.1:8000/deliveryInfo".</t>
   </si>
   <si>
-    <t>Onclick,An alert box will pop up to make a decision whether you really want to order or not .
-If customer choose "Yes", another alert box will pop again.
-If you choose "No" ,the alert box will disappear and still in deliveryInfo Page.</t>
-  </si>
-  <si>
     <t>If Customer Chose 
 Cash Payment</t>
   </si>
@@ -167,13 +162,6 @@
   <si>
     <t>After clicking order btn statment,when customer chose cash payment method, 'Your order has successfully completed!' alert box will appear again.
 If  click "Yes" again, customer order is successfully completed and customer will be deliverd to this address "http://127.0.0.1:8000/".</t>
-  </si>
-  <si>
-    <t>After clicking order btn statment,when customer chose coin payment method, there are two situations.
-First situation is ,when customer has enough coins,  'Your order has successfully completed!' alert box will appear again.
-If  click "Yes" again, customer order is successfully completed and customer will be deliverd to this address "http://127.0.0.1:8000/".
-Second situation is, when customer does not have enough coins, 'Doesn't enuogh Coin Please Buy more Coin.' alert box will appear.
-If  click "Ok" , customer will be deliverd to this address "http://127.0.0.1:8000/buycoin".</t>
   </si>
   <si>
     <t xml:space="preserve"> In initial stage,  the datas of  input boxes are shown and already checked coin radio btn.
@@ -186,6 +174,18 @@
       -&gt;join('m_state', 'm_state.id', '=', 't_cu_customer.address1')
       -&gt;first();
       </t>
+  </si>
+  <si>
+    <t>Onclick,An alert box will pop up to make a decision whether you really want to order or not .
+If customer choose "Yes", another alert box will pop again.
+If customer choose "No" ,the alert box will disappear and still in deliveryInfo Page.</t>
+  </si>
+  <si>
+    <t>After clicking order btn statment,when customer chose coin payment method, there are two situations.
+First situation is ,when customer has enough coins,  'Your order has successfully completed!' alert box will appear again.
+If  click "Yes" again, customer order is successfully completed and customer will be deliverd to this address "http://127.0.0.1:8000/".
+Second situation is, when customer does not have enough coins, 'Doesn't enuogh Coin Please Buy more Coin.' alert box will appear.
+If  click "Ok" , customer will be deliverd to this address "http://127.0.0.1:8000/buycoin" to buy more coins.</t>
   </si>
 </sst>
 </file>
@@ -564,6 +564,102 @@
     <xf numFmtId="14" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -572,102 +668,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="M8" sqref="A1:R8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="92" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -998,102 +998,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
       <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="28">
+      <c r="P1" s="42">
         <v>44501</v>
       </c>
-      <c r="Q1" s="29"/>
+      <c r="Q1" s="43"/>
       <c r="R1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="30">
+      <c r="P2" s="44">
         <v>44501</v>
       </c>
-      <c r="Q2" s="31"/>
+      <c r="Q2" s="45"/>
       <c r="R2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="34"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48"/>
       <c r="R3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
       <c r="M4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1111,22 +1111,22 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
       <c r="M5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1147,21 +1147,21 @@
       <c r="A6" s="15">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="13" t="s">
         <v>22</v>
       </c>
@@ -1176,21 +1176,21 @@
       <c r="A7" s="15">
         <v>2</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="50"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="13" t="s">
         <v>22</v>
       </c>
@@ -1205,21 +1205,21 @@
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="3" t="s">
         <v>22</v>
       </c>
@@ -1232,17 +1232,17 @@
     </row>
     <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -1253,21 +1253,21 @@
       <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="41" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
       <c r="M10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1282,21 +1282,21 @@
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="38" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1309,17 +1309,17 @@
     </row>
     <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -1330,21 +1330,21 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="38" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1359,21 +1359,21 @@
       <c r="A14" s="6">
         <v>7</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="37" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1388,21 +1388,21 @@
       <c r="A15" s="6">
         <v>8</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="37" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="3" t="s">
         <v>22</v>
       </c>
@@ -1415,17 +1415,17 @@
     </row>
     <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -1436,21 +1436,21 @@
       <c r="A17" s="6">
         <v>9</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
       <c r="M17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1465,21 +1465,21 @@
       <c r="A18" s="6">
         <v>10</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
+      <c r="B18" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
       <c r="M18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1494,21 +1494,21 @@
       <c r="A19" s="6">
         <v>11</v>
       </c>
-      <c r="B19" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
+      <c r="B19" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
       <c r="M19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1521,17 +1521,17 @@
     </row>
     <row r="20" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1540,17 +1540,17 @@
     </row>
     <row r="21" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -1559,17 +1559,17 @@
     </row>
     <row r="22" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -1578,17 +1578,17 @@
     </row>
     <row r="23" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -1597,17 +1597,17 @@
     </row>
     <row r="24" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -1616,17 +1616,17 @@
     </row>
     <row r="25" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1635,17 +1635,17 @@
     </row>
     <row r="26" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -1654,12 +1654,29 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:N2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B23:C23"/>
@@ -1675,20 +1692,13 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D11:L11"/>
-    <mergeCell ref="D26:L26"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:L16"/>
     <mergeCell ref="D14:L14"/>
     <mergeCell ref="D10:L10"/>
     <mergeCell ref="B10:C10"/>
@@ -1696,16 +1706,6 @@
     <mergeCell ref="D8:L8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:L9"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:N2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId1"/>

--- a/customer/Cherry_Customer_DeliveryInfo .xlsx
+++ b/customer/Cherry_Customer_DeliveryInfo .xlsx
@@ -237,13 +237,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,19 +493,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -530,28 +521,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -569,87 +581,78 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,559 +973,540 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="9"/>
+    <col min="1" max="1" width="8.796875" style="6"/>
     <col min="3" max="3" width="16.69921875" customWidth="1"/>
     <col min="12" max="12" width="25.296875" customWidth="1"/>
-    <col min="13" max="13" width="16.09765625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="16.09765625" style="10" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
     <col min="15" max="15" width="16.296875" customWidth="1"/>
     <col min="17" max="17" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="41" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" s="40" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="3" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="32">
+      <c r="P2" s="37">
         <v>44501</v>
       </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="2" t="s">
+      <c r="Q2" s="38"/>
+      <c r="R2" s="56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="42"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="4" t="s">
+    <row r="3" spans="1:18" s="40" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="47">
         <v>44501</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="2" t="s">
+      <c r="Q3" s="48"/>
+      <c r="R3" s="56" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="40"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="2" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="56" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:18" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="1" t="s">
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="51" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="46"/>
-      <c r="B6" s="36" t="s">
+      <c r="R5" s="56"/>
+    </row>
+    <row r="6" spans="1:18" s="40" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A6" s="52"/>
+      <c r="B6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="54"/>
+      <c r="D6" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="1" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="56"/>
     </row>
     <row r="7" spans="1:18" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="47">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="5" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="47">
+      <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="5" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="205.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="12" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="12" t="s">
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="84" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="12" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" ht="25.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="12" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+      <c r="A13" s="4">
         <v>7</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="12" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+      <c r="A14" s="4">
         <v>8</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="12" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="2"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+      <c r="A15" s="4">
         <v>9</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="12" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="2"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="87.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+      <c r="A16" s="4">
         <v>10</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="12" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="N16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="2"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" ht="205.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+      <c r="A17" s="4">
         <v>11</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="12" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="N17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="2"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="N18" s="10"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="D12:L12"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:L1"/>
     <mergeCell ref="B8:C8"/>
@@ -1537,6 +1521,26 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId1"/>

--- a/customer/Cherry_Customer_DeliveryInfo .xlsx
+++ b/customer/Cherry_Customer_DeliveryInfo .xlsx
@@ -107,9 +107,6 @@
     <t>back arrow btn</t>
   </si>
   <si>
-    <t>When user click back arrow btn beside 'Delivery Information' title,  User will be deliverd to this address  "http://127.0.0.1:8000/cart".</t>
-  </si>
-  <si>
     <t>Phone Input Box</t>
   </si>
   <si>
@@ -145,20 +142,12 @@
     <t>Order Btn</t>
   </si>
   <si>
-    <t>When customer click delivery btn in cart page, User will be deliverd to this address 
-"http://127.0.0.1:8000/deliveryInfo".</t>
-  </si>
-  <si>
     <t>If Customer Chose 
 Cash Payment</t>
   </si>
   <si>
     <t>If Customer Chose 
 Coin Payment</t>
-  </si>
-  <si>
-    <t>After clicking order btn statment,when customer chose cash payment method, 'Your order has successfully completed!' alert box will appear again.
-If  click "Yes" again, customer order is successfully completed and customer will be deliverd to this address "http://127.0.0.1:8000/".</t>
   </si>
   <si>
     <t xml:space="preserve"> In initial stage,  the datas of  input boxes are shown and already checked coin radio btn.
@@ -173,13 +162,6 @@
       </t>
   </si>
   <si>
-    <t>After clicking order btn statment,when customer chose coin payment method, there are two situations.
-First situation is ,when customer has enough coins,  'Your order has successfully completed!' alert box will appear again.
-If  click "Yes" again, customer order is successfully completed and customer will be deliverd to this address "http://127.0.0.1:8000/".
-Second situation is, when customer does not have enough coins, 'Doesn't enuogh Coin Please Buy more Coin.' alert box will appear.
-If  click "Ok" , customer will be deliverd to this address "http://127.0.0.1:8000/buycoin" to buy more coins.</t>
-  </si>
-  <si>
     <t>Food Lab</t>
   </si>
   <si>
@@ -192,6 +174,24 @@
     <t>Onclick,An alert box will pop up to make a decision whether you really want to order or not.
 If customer choose "Yes", another alert box will pop again.
 If customer choose "No" ,the alert box will disappear and still in deliveryInfo Page.</t>
+  </si>
+  <si>
+    <t>When customer click delivery btn in cart page, User will be deliverd to this address 
+"http://www.website.com/deliveryInfo".</t>
+  </si>
+  <si>
+    <t>When user click back arrow btn beside 'Delivery Information' title,  User will be deliverd to this address  "http://www.website.com/cart".</t>
+  </si>
+  <si>
+    <t>After clicking order btn statment,when customer chose cash payment method, 'Your order has successfully completed!' alert box will appear again.
+If  click "Yes" again, customer order is successfully completed and customer will be deliverd to this address "http://www.website.com/".</t>
+  </si>
+  <si>
+    <t>After clicking order btn statment,when customer chose coin payment method, there are two situations.
+First situation is ,when customer has enough coins,  'Your order has successfully completed!' alert box will appear again.
+If  click "Yes" again, customer order is successfully completed and customer will be deliverd to this address "http://www.website.com/".
+Second situation is, when customer does not have enough coins, 'Doesn't enuogh Coin Please Buy more Coin.' alert box will appear.
+If  click "Ok" , customer will be deliverd to this address "http://www.website.com/buycoin" to buy more coins.</t>
   </si>
 </sst>
 </file>
@@ -243,12 +243,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -312,7 +312,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -325,34 +325,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -384,17 +356,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -421,30 +382,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -480,11 +417,31 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -496,11 +453,11 @@
   <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -515,144 +472,144 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,17 +941,17 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1002,178 +959,178 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" s="40" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:18" s="37" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="37">
+      <c r="P2" s="34">
         <v>44501</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="56" t="s">
+      <c r="Q2" s="35"/>
+      <c r="R2" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="40" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46" t="s">
+    <row r="3" spans="1:18" s="37" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="47">
+      <c r="P3" s="51">
         <v>44501</v>
       </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="56" t="s">
+      <c r="Q3" s="52"/>
+      <c r="R3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="56" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:18" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="51" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="51" t="s">
+      <c r="N5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="51" t="s">
+      <c r="O5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="51" t="s">
+      <c r="P5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="51" t="s">
+      <c r="Q5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="56"/>
-    </row>
-    <row r="6" spans="1:18" s="40" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53" t="s">
+      <c r="R5" s="13"/>
+    </row>
+    <row r="6" spans="1:18" s="37" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A6" s="41"/>
+      <c r="B6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="51" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="51" t="s">
+      <c r="N6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="51" t="s">
+      <c r="P6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="51" t="s">
+      <c r="Q6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="56"/>
+      <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:18" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -1184,26 +1141,26 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1214,26 +1171,26 @@
       <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -1244,26 +1201,26 @@
       <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -1274,26 +1231,26 @@
       <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -1304,26 +1261,26 @@
       <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="18" t="s">
+      <c r="B12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
       <c r="M12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1334,26 +1291,26 @@
       <c r="A13" s="4">
         <v>7</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
       <c r="M13" s="9" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -1364,26 +1321,26 @@
       <c r="A14" s="4">
         <v>8</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="B14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1394,26 +1351,26 @@
       <c r="A15" s="4">
         <v>9</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="B15" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="9" t="s">
         <v>21</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -1424,26 +1381,26 @@
       <c r="A16" s="4">
         <v>10</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="B16" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="9" t="s">
         <v>21</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -1454,26 +1411,26 @@
       <c r="A17" s="4">
         <v>11</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="B17" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
       <c r="M17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -1507,6 +1464,26 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="D12:L12"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:L1"/>
     <mergeCell ref="B8:C8"/>
@@ -1521,28 +1498,8 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="39" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="38" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/customer/Cherry_Customer_DeliveryInfo .xlsx
+++ b/customer/Cherry_Customer_DeliveryInfo .xlsx
@@ -116,13 +116,6 @@
     <t>User Profile Change Btn</t>
   </si>
   <si>
-    <t xml:space="preserve">If user want to change name input box and address input box which are readable 
-only, click user profile btn to change name and address.
-When user click user profile btn, User will be deliverd to this address 
-"http://127.0.0.1:8000/editprofile".
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Customer can choose coin payment and cash payment.
 </t>
   </si>
@@ -133,9 +126,6 @@
     <t>Coin Payment</t>
   </si>
   <si>
-    <t>When customer check coin ratio btn, coin amount will be shown in payment input box.</t>
-  </si>
-  <si>
     <t>Cash Payment</t>
   </si>
   <si>
@@ -150,25 +140,7 @@
 Coin Payment</t>
   </si>
   <si>
-    <t xml:space="preserve"> In initial stage,  the datas of  input boxes are shown and already checked coin radio btn.
-But the datas of name input box and address input box are readable only.
-We get customer informations from database  by this query: 
-       $userID = session('customerId');
-       T_CU_Customer::select('*', DB::raw('t_cu_customer.id'))
-      -&gt;where('t_cu_customer.id', '=', $userID)
-      -&gt;join('m_township', 'm_township.id', '=', 't_cu_customer.address2')
-      -&gt;join('m_state', 'm_state.id', '=', 't_cu_customer.address1')
-      -&gt;first();
-      </t>
-  </si>
-  <si>
-    <t>Food Lab</t>
-  </si>
-  <si>
     <t>2022/03/07</t>
-  </si>
-  <si>
-    <t>When customer check cash ratio btn, cash amount will be shown in payment input box.</t>
   </si>
   <si>
     <t>Onclick,An alert box will pop up to make a decision whether you really want to order or not.
@@ -178,9 +150,6 @@
   <si>
     <t>When customer click delivery btn in cart page, User will be deliverd to this address 
 "http://www.website.com/deliveryInfo".</t>
-  </si>
-  <si>
-    <t>When user click back arrow btn beside 'Delivery Information' title,  User will be deliverd to this address  "http://www.website.com/cart".</t>
   </si>
   <si>
     <t>After clicking order btn statment,when customer chose cash payment method, 'Your order has successfully completed!' alert box will appear again.
@@ -193,12 +162,65 @@
 Second situation is, when customer does not have enough coins, 'Doesn't enuogh Coin Please Buy more Coin.' alert box will appear.
 If  click "Ok" , customer will be deliverd to this address "http://www.website.com/buycoin" to buy more coins.</t>
   </si>
+  <si>
+    <t>Food Lab(Customer)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> In initial stage,  the datas of  input boxes are shown and already checked coin radio btn.
+But the datas of name input box and address input box are readable only.
+We get customer informations from database  by this query: 
+       T_CU_Customer::select('*', DB::raw('t_cu_customer.id'))
+      -&gt;where('t_cu_customer.id', '=', _</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>currentUserID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_)
+      -&gt;join('m_township', 'm_township.id', '=', 't_cu_customer.address2')
+      -&gt;join('m_state', 'm_state.id', '=', 't_cu_customer.address1')
+      -&gt;first();
+      </t>
+    </r>
+  </si>
+  <si>
+    <t>When customer check cash ratio btn, cash amount will be shown and coin amount will
+disappear in payment input box.</t>
+  </si>
+  <si>
+    <t>When customer check coin ratio btn, coin amount will be shown and cash amount will
+disappear in payment input box.</t>
+  </si>
+  <si>
+    <t>When customer click back arrow btn beside 'Delivery Information' title,  User will be deliverd to this address  "http://www.website.com/cart".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If customer want to change name and address which are readable only, click user profile btn to change name and address.
+When customer click user profile btn, customer will be deliverd to this address "http://127.0.0.1:8000/editprofile".
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,6 +249,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -450,16 +480,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -472,67 +499,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,8 +583,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,20 +598,30 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,42 +630,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,537 +951,537 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="6"/>
+    <col min="1" max="1" width="8.796875" style="5"/>
     <col min="3" max="3" width="16.69921875" customWidth="1"/>
-    <col min="12" max="12" width="25.296875" customWidth="1"/>
-    <col min="13" max="13" width="16.09765625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="25.3984375" customWidth="1"/>
+    <col min="13" max="13" width="16.09765625" style="8" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
     <col min="15" max="15" width="16.296875" customWidth="1"/>
     <col min="17" max="17" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="8"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="7"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" s="37" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:18" s="12" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="34">
+      <c r="P2" s="41">
         <v>44501</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="13" t="s">
+      <c r="Q2" s="42"/>
+      <c r="R2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="37" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50" t="s">
+    <row r="3" spans="1:18" s="12" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="51">
+      <c r="P3" s="43">
         <v>44501</v>
       </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="13" t="s">
+      <c r="Q3" s="44"/>
+      <c r="R3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="53"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="13" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:18" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40" t="s">
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="40" t="s">
+      <c r="Q5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="13"/>
-    </row>
-    <row r="6" spans="1:18" s="37" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42" t="s">
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" s="12" customFormat="1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A6" s="49"/>
+      <c r="B6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="42" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="40" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="40" t="s">
+      <c r="P6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="40" t="s">
+      <c r="Q6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="13"/>
+      <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12">
+      <c r="A7" s="16">
         <v>1</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="2" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="11" t="s">
-        <v>37</v>
+      <c r="N7" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12">
+    <row r="8" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="15">
         <v>2</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="2" t="s">
+      <c r="B8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="N8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="205.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4">
+    <row r="9" spans="1:18" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="15">
         <v>3</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="9" t="s">
+      <c r="B9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="11" t="s">
-        <v>37</v>
+      <c r="N9" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4">
+    <row r="10" spans="1:18" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="15">
         <v>4</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="9" t="s">
+      <c r="B10" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="11" t="s">
-        <v>37</v>
+      <c r="N10" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="84" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4">
+    <row r="11" spans="1:18" ht="25.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="15">
         <v>5</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27" t="s">
+      <c r="B11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="9" t="s">
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="11" t="s">
-        <v>37</v>
+      <c r="N11" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="25.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4">
+    <row r="12" spans="1:18" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="15">
         <v>6</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="9" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="11" t="s">
-        <v>37</v>
+      <c r="N12" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4">
+    <row r="13" spans="1:18" ht="50.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="15">
         <v>7</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="9" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="11" t="s">
-        <v>37</v>
+      <c r="N13" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="4">
+    <row r="14" spans="1:18" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="15">
         <v>8</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="9" t="s">
+      <c r="B14" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="11" t="s">
-        <v>37</v>
+      <c r="N14" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="4">
+    <row r="15" spans="1:18" ht="87.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="15">
         <v>9</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="9" t="s">
+      <c r="B15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="11" t="s">
-        <v>37</v>
+      <c r="N15" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="87.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="4">
+    <row r="16" spans="1:18" ht="205.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="15">
         <v>10</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="18" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" ht="205.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="4">
+    <row r="17" spans="1:18" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="16">
         <v>11</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="9" t="s">
+      <c r="B17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="N17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="N18" s="7"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -1474,30 +1495,30 @@
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D16:L16"/>
     <mergeCell ref="D17:L17"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="D12:L12"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:L1"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
     <mergeCell ref="D7:L7"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="38" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId1"/>
